--- a/biology/Zoologie/Gobihadros/Gobihadros.xlsx
+++ b/biology/Zoologie/Gobihadros/Gobihadros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gobihadros mongoliensis
 Gobihadros est un genre fossile de dinosaures ornithopodes iguanodontes, un membre basal de la super-famille des Hadrosauroidea.
@@ -513,9 +525,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreux fossiles ont été trouvés dans le désert de Gobi en Mongolie dans la formation géologique de Baynshire (parfois orthographiée Bayn Shire ou Bayn Shireh) d'âge Crétacé supérieur (Cénomanien à Santonien), soit il y a environ entre 100,5 et 83,6 millions d'années[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux fossiles ont été trouvés dans le désert de Gobi en Mongolie dans la formation géologique de Baynshire (parfois orthographiée Bayn Shire ou Bayn Shireh) d'âge Crétacé supérieur (Cénomanien à Santonien), soit il y a environ entre 100,5 et 83,6 millions d'années.
 Le spécimen holotype est un squelette presque complet et articulé référencé MPC-D100/746.
 </t>
         </is>
@@ -545,11 +559,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gobihadros est un hadrosauroïde relativement petit ne dépassant pas 3 mètres de longueur[1]. Cependant, les os du squelette holotype ont montré qu'ils n'appartenaient pas un individu totalement adulte.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gobihadros est un hadrosauroïde relativement petit ne dépassant pas 3 mètres de longueur. Cependant, les os du squelette holotype ont montré qu'ils n'appartenaient pas un individu totalement adulte.
 Gobihadros diffère de Bactrosaurus johnsoni, Probactrosaurus gobiensis, Eolambia caroljonesa, Claosaurus agilis et Tethyshadros insularis par le profil supérieur ondulé de son ilium et par une crête supra-acétabulaire plus saillante vers le côté.
-Gobihadros se distingue également de T. insularis, Plesiohadros djadokhtaensis et des espèces de la famille des Hadrosauridae, car il possède à son premier doigt une griffe conique en forme de pointe[1].
+Gobihadros se distingue également de T. insularis, Plesiohadros djadokhtaensis et des espèces de la famille des Hadrosauridae, car il possède à son premier doigt une griffe conique en forme de pointe.
 </t>
         </is>
       </c>
@@ -578,10 +594,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gobihadros est classé comme un Hadrosauroidea basal (en amont des Hadrosauridae)[1]. Cependant les résultats de l'analyse phylogénétique conduite par ses inventeur de 2019 n'apparaissent pas déterminants car ils aboutissent à son placement dans une polytomie avec de nombreux autres genres.
-Sa découverte et son identification ont été considérées comme une confirmation du modèle d'invasion ultérieure d'hadrosauroïdes d'origine américaine en Asie[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gobihadros est classé comme un Hadrosauroidea basal (en amont des Hadrosauridae). Cependant les résultats de l'analyse phylogénétique conduite par ses inventeur de 2019 n'apparaissent pas déterminants car ils aboutissent à son placement dans une polytomie avec de nombreux autres genres.
+Sa découverte et son identification ont été considérées comme une confirmation du modèle d'invasion ultérieure d'hadrosauroïdes d'origine américaine en Asie.
 </t>
         </is>
       </c>
